--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas_gr_carvalho\Documents\Game\inicial_game\Game_tanque\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas_gr_carvalho\Documents\Jogo\Jogo_Tanque\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>lista de tarefas</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>des_tiro()</t>
+  </si>
+  <si>
+    <t>Desenha()</t>
+  </si>
+  <si>
+    <t>Atualiza()</t>
   </si>
 </sst>
 </file>
@@ -2873,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,12 +3004,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>80</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -3019,12 +3025,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -3032,12 +3038,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>52</v>
       </c>
@@ -3045,54 +3051,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -3100,9 +3082,49 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>6</v>
       </c>
     </row>
